--- a/data/trans_bre/P05B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P05B_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.5269264353855628</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.2245837008151103</v>
+        <v>-0.2245837008151104</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4858876934790182</v>
@@ -660,25 +660,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.859522157042926</v>
+        <v>-4.582329525289734</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.808290356474413</v>
+        <v>-1.681039386935061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.286800131693976</v>
+        <v>-4.547139029962696</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.145567876638833</v>
+        <v>-1.345718557797778</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5654550455266476</v>
+        <v>-0.5195122513689138</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5858403282020725</v>
+        <v>-0.6245121150706591</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9569440324312232</v>
+        <v>0.8535776362949233</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.060237669860473</v>
+        <v>4.03271113268223</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.196150837097743</v>
+        <v>3.245386810331945</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.945007019399699</v>
+        <v>1.437347384030308</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.748683343325606</v>
+        <v>3.942605650101148</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9047599551118474</v>
+        <v>1.013291341819086</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.740463330392474</v>
+        <v>-0.5576915227244775</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.802985499220305</v>
+        <v>-3.643434573916668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.2144185964443699</v>
+        <v>-0.07198274274304854</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.429485594117575</v>
+        <v>-1.718353607252565</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1798234203783201</v>
+        <v>-0.1344382524613482</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5771606850333226</v>
+        <v>-0.5767556118374737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09649285847152785</v>
+        <v>-0.07949756061709536</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8803555253332672</v>
+        <v>-0.9080337832820068</v>
       </c>
     </row>
     <row r="9">
@@ -788,27 +788,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.605944606767212</v>
+        <v>4.948599802549046</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.608269340652996</v>
+        <v>1.793585353088022</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.760817601380879</v>
+        <v>4.757818873073232</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7987056787121218</v>
+        <v>0.8056542485987623</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.836573313136306</v>
+        <v>2.015220359709044</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5173546794722996</v>
+        <v>0.5266246820273021</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.082376368987356</v>
-      </c>
-      <c r="J9" s="6" t="inlineStr"/>
+        <v>3.026733107162981</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.682968000778161</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -831,7 +833,7 @@
         <v>0.1188874244176073</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.7728610265353174</v>
+        <v>-0.7728610265353166</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7470262971907374</v>
@@ -845,7 +847,7 @@
         <v>0.2304441669438599</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2034407565587966</v>
+        <v>-0.2034407565587965</v>
       </c>
     </row>
     <row r="11">
@@ -856,24 +858,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4653194533879378</v>
+        <v>-0.656807403370902</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.314518639058098</v>
+        <v>-1.541368477969846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.778712691642653</v>
+        <v>-3.905025782393122</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1273931209447967</v>
+        <v>-0.1940604188891952</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.6736791948616313</v>
+        <v>-0.6762223186899882</v>
       </c>
     </row>
     <row r="12">
@@ -884,24 +886,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.616681939802056</v>
+        <v>5.865094636346273</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.478466879732714</v>
+        <v>1.652314594376689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.364469474069379</v>
+        <v>1.359511553889297</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.275105843597629</v>
+        <v>1.97849708062085</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.583704114542794</v>
+        <v>2.457440877790765</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.19241459688816</v>
+        <v>1.077604597105811</v>
       </c>
     </row>
     <row r="13">
@@ -925,7 +927,7 @@
         <v>1.883817438712886</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.123141847753926</v>
+        <v>-0.1231418477539273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.004240561531833926</v>
@@ -937,7 +939,7 @@
         <v>1.527870844483588</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.0495186166890523</v>
+        <v>-0.04951861668905284</v>
       </c>
     </row>
     <row r="14">
@@ -948,28 +950,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.416358402876836</v>
+        <v>-2.458467618605365</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.224921202802712</v>
+        <v>-1.160719144696259</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.07810724156768846</v>
+        <v>0.00527440596026482</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.730365289305068</v>
+        <v>-2.994146875215175</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5882921946028771</v>
+        <v>-0.6393428145107388</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.597403329485138</v>
+        <v>-0.61283973138419</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.189549448698248</v>
+        <v>-0.2379267664139906</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6642224125001301</v>
+        <v>-0.6747497561674217</v>
       </c>
     </row>
     <row r="15">
@@ -980,28 +982,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.468173036630435</v>
+        <v>2.329293503031479</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.615813408959868</v>
+        <v>2.615851533989542</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.354890595856559</v>
+        <v>4.605273659156526</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.581516584882893</v>
+        <v>1.509137647496867</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.702369719098916</v>
+        <v>1.561254616729095</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.175260636759156</v>
+        <v>4.81199199569511</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.830208310835694</v>
+        <v>9.758041472446747</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.240926843513625</v>
+        <v>1.034668329336552</v>
       </c>
     </row>
     <row r="16">
@@ -1050,22 +1052,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.937049651215847</v>
+        <v>-3.059120320831604</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.473767525774404</v>
+        <v>-2.37029963059156</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4029251849585637</v>
+        <v>0.3973944831860674</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.711022545478388</v>
+        <v>-1.517739504060381</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3381085155626239</v>
+        <v>-0.3170524488310021</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.7425609746296851</v>
+        <v>-0.6822915787536487</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="inlineStr"/>
@@ -1078,22 +1080,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.91685431484493</v>
+        <v>7.306738244066288</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.777138354157641</v>
+        <v>3.80607346014771</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.627907506873702</v>
+        <v>3.457912149019227</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2946654236716385</v>
+        <v>0.2906902473867199</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.543651542755169</v>
+        <v>1.52639026953296</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.760030965768994</v>
+        <v>3.68713994860127</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="inlineStr"/>
@@ -1119,7 +1121,7 @@
         <v>0.05978525167999868</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1655443234970602</v>
+        <v>0.1655443234970598</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7458009910172226</v>
@@ -1131,7 +1133,7 @@
         <v>0.1905120675685298</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.22051952527427</v>
+        <v>0.2205195252742696</v>
       </c>
     </row>
     <row r="20">
@@ -1142,23 +1144,25 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.8230485364436687</v>
+        <v>-1.076705641353519</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.745215225998242</v>
+        <v>-1.529084786220233</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.632207679265364</v>
+        <v>-0.634197849583386</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.464498559805807</v>
+        <v>-1.613874446178681</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6915596670120238</v>
+        <v>-0.7634828094368803</v>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
-      <c r="J20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1168,18 +1172,20 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.119409216380929</v>
+        <v>2.966160374313695</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7897427149689948</v>
+        <v>0.8414966312326575</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.15245834860924</v>
+        <v>1.15995295839608</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.356995659057309</v>
-      </c>
-      <c r="G21" s="6" t="inlineStr"/>
+        <v>1.335486877324024</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>10.01471044598185</v>
+      </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="inlineStr"/>
@@ -1205,7 +1211,7 @@
         <v>0.4719300855642357</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.231562024483734</v>
+        <v>1.231562024483733</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>2.063489628833786</v>
@@ -1228,28 +1234,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.2151013931812</v>
+        <v>2.246808635235957</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8741693757988395</v>
+        <v>-0.8519054813803957</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9055026950526032</v>
+        <v>-0.973310942617732</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.294209562014827</v>
+        <v>0.1744138699542425</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6237463319287226</v>
+        <v>0.6903732311988817</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.8201376475297572</v>
+        <v>-0.8695533983923757</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.5245867779898993</v>
+        <v>-0.5422572851511517</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.04798294892548952</v>
+        <v>0.01656822273535085</v>
       </c>
     </row>
     <row r="24">
@@ -1260,28 +1266,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.727204189791783</v>
+        <v>6.952443002847529</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.192098622204055</v>
+        <v>1.179068417902334</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.771897175088567</v>
+        <v>1.765373668643289</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.418199885883513</v>
+        <v>2.468657068200481</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>4.989514922985181</v>
+        <v>5.057187127735014</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>4.291946979726922</v>
+        <v>4.952972587513514</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.909501625706224</v>
+        <v>2.854669837393937</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>7.695288337921735</v>
+        <v>10.04636512076053</v>
       </c>
     </row>
     <row r="25">
@@ -1305,7 +1311,7 @@
         <v>0.5576554225567629</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1462985685256894</v>
+        <v>0.1462985685256895</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4128378635822766</v>
@@ -1317,7 +1323,7 @@
         <v>2.282198770946777</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2898391313384523</v>
+        <v>0.2898391313384525</v>
       </c>
     </row>
     <row r="26">
@@ -1328,28 +1334,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.9854414493219061</v>
+        <v>-0.911997367996206</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.4324738779912</v>
+        <v>-1.444484614437318</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.09702508671093125</v>
+        <v>0.001184635326430442</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.5515955652617279</v>
+        <v>-0.5549881087621624</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2908191970123527</v>
+        <v>-0.2482605588798514</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8634102070242007</v>
+        <v>-0.8835626674844944</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6320274025909258</v>
+        <v>-0.7647776358349843</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6497539770071469</v>
+        <v>-0.7175818554078385</v>
       </c>
     </row>
     <row r="27">
@@ -1360,26 +1366,26 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.817256944863738</v>
+        <v>2.709297119050109</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5333272493660538</v>
+        <v>0.508878765869298</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.474282055045154</v>
+        <v>1.498120750910825</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8138143890117076</v>
+        <v>0.8490105320967242</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.55692762790309</v>
+        <v>1.540877687146275</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.621892699370286</v>
+        <v>1.277451807993389</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>4.995148019083406</v>
+        <v>4.621819122617987</v>
       </c>
     </row>
     <row r="28">
@@ -1426,28 +1432,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7991386661576906</v>
+        <v>0.8476752713935594</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6894059397983762</v>
+        <v>-0.6355698515501602</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1201299413133705</v>
+        <v>0.1113377021890571</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.2703614622277874</v>
+        <v>-0.3237933962137145</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2266589256600832</v>
+        <v>0.2437333126441931</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.3462573238647885</v>
+        <v>-0.3226618445579236</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06520579562511511</v>
+        <v>0.05170847164757597</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.204784637144054</v>
+        <v>-0.233490271377558</v>
       </c>
     </row>
     <row r="30">
@@ -1458,28 +1464,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.657558711128913</v>
+        <v>2.736719708660925</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5839783797854015</v>
+        <v>0.6364107633655534</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.414248682077779</v>
+        <v>1.431855354552833</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6807525218489222</v>
+        <v>0.6449171813318283</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.06597120349207</v>
+        <v>1.07960332234437</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4386564045153341</v>
+        <v>0.4704112249184417</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.340468522836092</v>
+        <v>1.344346596883397</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.8585345668089637</v>
+        <v>0.8050441972166537</v>
       </c>
     </row>
     <row r="31">
